--- a/ApolloQA/Data/RatingManual/SC/VA00059.SizeType_VehicleAgeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00059.SizeType_VehicleAgeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00059.SizeType_VehicleAgeFactors" sheetId="1" r:id="R0b8a69be992e4021"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00059.SizeType_VehicleAgeFactors" sheetId="1" r:id="Rced8851b75164ce2"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1141,6 +1141,26 @@
         <x:v>20,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8913</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>24</x:v>
       </x:c>
       <x:c t="str">
@@ -2241,6 +2261,26 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0527</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>16</x:v>
       </x:c>
       <x:c t="str">
@@ -3341,6 +3381,26 @@
         <x:v>45,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1582</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Tractor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
@@ -4432,6 +4492,26 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>Tractor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9636</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>Trailer</x:v>
       </x:c>
       <x:c t="str">
@@ -5528,6 +5608,26 @@
       </x:c>
       <x:c t="str">
         <x:v>1.0125</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Trailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0151</x:v>
       </x:c>
     </x:row>
     <x:row>
